--- a/exel/Внутренняя баллистика РДТТ.xlsx
+++ b/exel/Внутренняя баллистика РДТТ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
   <si>
     <t>u1</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Газогенератор низкотемп</t>
+  </si>
+  <si>
+    <t>Параметры в критическом сечении</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -568,11 +574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210559248"/>
-        <c:axId val="210559632"/>
+        <c:axId val="440371960"/>
+        <c:axId val="440372744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210559248"/>
+        <c:axId val="440371960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,12 +635,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210559632"/>
+        <c:crossAx val="440372744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210559632"/>
+        <c:axId val="440372744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +697,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210559248"/>
+        <c:crossAx val="440371960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1596,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,13 +1715,18 @@
         <v>35</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <f>B6*1000</f>
+        <v>40</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <f>I6*1000</f>
+        <v>65.579692435154215</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1764,7 +1775,7 @@
         <f>PI()*A6*A6/4</f>
         <v>1.539380400258999E-2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>H6/A9</f>
         <v>15.306813999569796</v>
       </c>
@@ -1974,6 +1985,64 @@
         <v>4.9260172808287965</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>J12*F20</f>
+        <v>972.01110548655208</v>
+      </c>
+      <c r="B20" s="1">
+        <f>A12*(1-(G12-1)/(G12+1)*F20*F20)^(1/(G12-1))</f>
+        <v>2491440.2653895058</v>
+      </c>
+      <c r="C20" s="1">
+        <v>101325</v>
+      </c>
+      <c r="D20" s="3">
+        <f>B12*(1-(G12-1)/(G12+1)*F20*F20)^(1/(G12))</f>
+        <v>2274.8424267555683</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>B20/100000</f>
+        <v>24.914402653895056</v>
+      </c>
+    </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>44</v>
